--- a/Output/USA/ORDERS_USA.xlsx
+++ b/Output/USA/ORDERS_USA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="289">
   <si>
     <t>ORDERNUMBER</t>
   </si>
@@ -44,48 +44,12 @@
     <t>Shipped</t>
   </si>
   <si>
-    <t>2003/01/09 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/01/18 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/01/11 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/01/14 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/01/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/02/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/02/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/01/31 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/02/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/02/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/02/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/02/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/02/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/02/17 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/02/24 00:00:00.000000000</t>
   </si>
   <si>
@@ -95,12 +59,6 @@
     <t>2003/02/26 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/03/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/03/08 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/03/10 00:00:00.000000000</t>
   </si>
   <si>
@@ -110,15 +68,6 @@
     <t>2003/03/11 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/03/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/03/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/03/20 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/03/25 00:00:00.000000000</t>
   </si>
   <si>
@@ -128,12 +77,6 @@
     <t>2003/03/30 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/04/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/03/29 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/03/26 00:00:00.000000000</t>
   </si>
   <si>
@@ -143,99 +86,24 @@
     <t>2003/03/27 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/04/01 00:00:00.000000000</t>
+    <t>2003/04/04 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/04/12 00:00:00.000000000</t>
   </si>
   <si>
     <t>2003/04/07 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/04/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/04/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/04/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/04/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/04/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/04/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/04/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/04/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/04/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/04/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/04/26 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/04/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/05/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/05/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/05/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/05/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/05/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/05/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/05/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/05/20 00:00:00.000000000</t>
+    <t>2003/05/21 00:00:00.000000000</t>
   </si>
   <si>
     <t>2003/05/29 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/05/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/05/21 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/05/25 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/05/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/05/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/05/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/06/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/06/02 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/06/03 00:00:00.000000000</t>
   </si>
   <si>
@@ -245,18 +113,6 @@
     <t>2003/06/06 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/06/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/06/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/06/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/06/14 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/06/16 00:00:00.000000000</t>
   </si>
   <si>
@@ -269,57 +125,15 @@
     <t>2003/06/25 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/07/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/06/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/06/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/07/04 00:00:00.000000000</t>
+    <t>2003/07/02 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/07/12 00:00:00.000000000</t>
   </si>
   <si>
     <t>2003/07/03 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/07/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/07/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/07/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/07/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/07/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/07/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/07/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/07/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/07/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/07/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/07/23 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/07/21 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/07/24 00:00:00.000000000</t>
   </si>
   <si>
@@ -329,15 +143,6 @@
     <t>2003/07/30 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/08/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/08/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/08/04 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/08/08 00:00:00.000000000</t>
   </si>
   <si>
@@ -356,12 +161,6 @@
     <t>2003/08/12 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/08/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/08/14 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/08/25 00:00:00.000000000</t>
   </si>
   <si>
@@ -389,48 +188,12 @@
     <t>2003/09/09 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/09/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/09/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/09/15 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/09/18 00:00:00.000000000</t>
   </si>
   <si>
     <t>2003/09/17 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/09/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/09/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/09/30 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/09/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/09/25 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/09/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/05 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/10/02 00:00:00.000000000</t>
   </si>
   <si>
@@ -440,51 +203,30 @@
     <t>2003/10/08 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/10/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/07 00:00:00.000000000</t>
+    <t>2003/10/10 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/10/19 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/10/16 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/10/11 00:00:00.000000000</t>
   </si>
   <si>
     <t>2003/10/17 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/10/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/10 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/10/18 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/10/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/25 00:00:00.000000000</t>
+    <t>2003/10/26 00:00:00.000000000</t>
   </si>
   <si>
     <t>2003/10/20 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/10/26 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2003/10/27 00:00:00.000000000</t>
   </si>
   <si>
@@ -497,1234 +239,646 @@
     <t>2003/10/30 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2003/10/23 00:00:00.000000000</t>
+    <t>2003/10/28 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/03 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/01 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/05 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/14 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/11 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/12 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/21 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/18 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/13 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/22 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/15 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/20 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/25 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/24 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/29 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/12/01 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/28 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/11/26 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/12/03 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/12/10 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/12/06 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/12/11 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/12/02 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/12/04 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/12/09 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2003/12/17 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/01/09 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/01/15 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/01/12 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/01/29 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/02/08 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/02/01 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/02/10 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/02/17 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/02/12 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/02/19 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/02/27 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/02/20 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/02/26 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/03/06 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/03/02 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/03/10 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/03/18 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/03/13 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/03/11 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/03/20 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/03/12 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/03/29 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/04/04 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/04/02 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/04/03 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/04/11 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/04/08 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/04/05 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/04/12 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/04/10 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/04/20 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/04/28 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/04/25 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/04/26 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/05/03 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/05/04 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/05/12 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/05/09 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/05/07 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/05/14 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>2004/05/08 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/05/17 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/05/11 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/05/19 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/05/15 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/05/18 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/05/24 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/06/14 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/06/24 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/06/15 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/06/28 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/04 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/02 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/06/30 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/06 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/01 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/07 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/17 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/09 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/20 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/29 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/23 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/26 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/22 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/07/21 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/02 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/11 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/08 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/06 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/16 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/09 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/19 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/28 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/23 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/20 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/26 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/22 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/27 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/09/04 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/08/31 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/09/07 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/09/15 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/09/13 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/09/08 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/09/18 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/09/11 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/09/10 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/09/17 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/09/14 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/10/13 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/10/22 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/10/15 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/10/14 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/10/23 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/10/20 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/10/24 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/10/21 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/10/27 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/02 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/12 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/08 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/09 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/07 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/03 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/11 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/06 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/04 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/10 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/05 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/15 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/24 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/16 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/17 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/23 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/18 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/27 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/20 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/19 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/29 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/21 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/30 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/11/26 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/12/05 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/12/01 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/12/07 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/12/03 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/12/12 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/12/09 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/12/04 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/12/11 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/12/10 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/12/16 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2004/12/14 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/05 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/16 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/10 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/07 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/18 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/11 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/12 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/21 00:00:00.000000000</t>
   </si>
   <si>
     <t>Resolved</t>
   </si>
   <si>
-    <t>2003/10/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/31 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/26 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>2003/10/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/26 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/25 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/30 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/11/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/12/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/25 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/26 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/01/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/26 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/02/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/26 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/25 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/30 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/03/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/25 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/26 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/04/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/26 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/05/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/25 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/23 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/06/30 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/23 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/26 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/07/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/23 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/26 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/30 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/08/31 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/09/30 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2003/10/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/23 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/25 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/10/30 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/25 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/23 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/28 00:00:00.000000000</t>
+    <t>2005/01/19 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/27 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/24 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/20 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/28 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/23 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/02/03 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/01/25 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/02/08 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/02/18 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/02/13 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/02/17 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/02/25 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/02/23 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/03/06 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/02/27 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/02/28 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/03/09 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/03/01 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/03/03 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/03/11 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/03/04 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/03/07 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/03/23 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/04/02 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/03/28 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/04/01 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/04/11 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/04/04 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/04/03 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/04/14 00:00:00.000000000</t>
   </si>
   <si>
     <t>On Hold</t>
   </si>
   <si>
-    <t>2004/11/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/26 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/30 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/11/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/23 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2004/12/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/25 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/23 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/26 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/01/31 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/13 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/25 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/23 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/06 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/02/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/22 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/25 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/23 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/02 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/28 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/30 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/03/31 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/03 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/04 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/07 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/08 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/18 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/15 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/25 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/21 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>Disputed</t>
-  </si>
-  <si>
     <t>2005/04/22 00:00:00.000000000</t>
   </si>
   <si>
     <t>2005/05/04 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2005/04/29 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/27 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/23 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2005/05/05 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2005/05/10 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/04/30 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/05/01 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/05/08 00:00:00.000000000</t>
+    <t>2005/05/14 00:00:00.000000000</t>
+  </si>
+  <si>
+    <t>2005/05/09 00:00:00.000000000</t>
   </si>
   <si>
     <t>2005/05/06 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2005/05/03 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2005/05/13 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2005/05/14 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/05/09 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/05/20 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/05/12 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/05/16 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/05/19 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/05/24 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/05/17 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/05/28 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2005/05/29 00:00:00.000000000</t>
   </si>
   <si>
-    <t>2005/06/07 00:00:00.000000000</t>
+    <t>2005/06/06 00:00:00.000000000</t>
   </si>
   <si>
     <t>In Process</t>
   </si>
   <si>
-    <t>2005/06/06 00:00:00.000000000</t>
-  </si>
-  <si>
     <t>2005/05/30 00:00:00.000000000</t>
   </si>
   <si>
     <t>2005/06/11 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/06/05 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/05/31 00:00:00.000000000</t>
-  </si>
-  <si>
-    <t>2005/06/08 00:00:00.000000000</t>
   </si>
 </sst>
 </file>
@@ -1831,10 +985,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>9</v>
@@ -1848,13 +1002,13 @@
         <v>10107.0</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>9</v>
@@ -1868,13 +1022,13 @@
         <v>10109.0</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
@@ -1888,13 +1042,13 @@
         <v>10111.0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>9</v>
@@ -1908,13 +1062,13 @@
         <v>10113.0</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>9</v>
@@ -1928,13 +1082,13 @@
         <v>10115.0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>9</v>
@@ -1948,13 +1102,13 @@
         <v>10124.0</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>9</v>
@@ -1968,13 +1122,13 @@
         <v>10127.0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>9</v>
@@ -1988,13 +1142,13 @@
         <v>10130.0</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>9</v>
@@ -2008,13 +1162,13 @@
         <v>10131.0</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>9</v>
@@ -2028,13 +1182,13 @@
         <v>10135.0</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>9</v>
@@ -2048,13 +1202,13 @@
         <v>10140.0</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>9</v>
@@ -2068,13 +1222,13 @@
         <v>10142.0</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>9</v>
@@ -2088,13 +1242,13 @@
         <v>10143.0</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>9</v>
@@ -2108,13 +1262,13 @@
         <v>10145.0</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>9</v>
@@ -2128,13 +1282,13 @@
         <v>10146.0</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>9</v>
@@ -2148,13 +1302,13 @@
         <v>10147.0</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>9</v>
@@ -2168,13 +1322,13 @@
         <v>10149.0</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>9</v>
@@ -2188,13 +1342,13 @@
         <v>10154.0</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>9</v>
@@ -2208,13 +1362,13 @@
         <v>10159.0</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>9</v>
@@ -2228,13 +1382,13 @@
         <v>10160.0</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>9</v>
@@ -2248,13 +1402,13 @@
         <v>10162.0</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>9</v>
@@ -2268,13 +1422,13 @@
         <v>10163.0</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>9</v>
@@ -2288,13 +1442,13 @@
         <v>10166.0</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>9</v>
@@ -2308,13 +1462,13 @@
         <v>10168.0</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>9</v>
@@ -2328,13 +1482,13 @@
         <v>10172.0</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>9</v>
@@ -2348,13 +1502,13 @@
         <v>10182.0</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>9</v>
@@ -2368,13 +1522,13 @@
         <v>10183.0</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>9</v>
@@ -2388,13 +1542,13 @@
         <v>10185.0</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>9</v>
@@ -2408,13 +1562,13 @@
         <v>10189.0</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>9</v>
@@ -2428,13 +1582,13 @@
         <v>10192.0</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>9</v>
@@ -2448,13 +1602,13 @@
         <v>10195.0</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>9</v>
@@ -2468,13 +1622,13 @@
         <v>10196.0</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>9</v>
@@ -2488,13 +1642,13 @@
         <v>10199.0</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>9</v>
@@ -2508,13 +1662,13 @@
         <v>10201.0</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>9</v>
@@ -2528,13 +1682,13 @@
         <v>10204.0</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>9</v>
@@ -2548,13 +1702,13 @@
         <v>10207.0</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>9</v>
@@ -2568,13 +1722,13 @@
         <v>10209.0</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>9</v>
@@ -2588,13 +1742,13 @@
         <v>10215.0</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>9</v>
@@ -2608,13 +1762,13 @@
         <v>10219.0</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>9</v>
@@ -2628,13 +1782,13 @@
         <v>10222.0</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>241</v>
+        <v>113</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>9</v>
@@ -2648,13 +1802,13 @@
         <v>10226.0</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>9</v>
@@ -2668,13 +1822,13 @@
         <v>10228.0</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>253</v>
+        <v>119</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>9</v>
@@ -2688,13 +1842,13 @@
         <v>10229.0</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>255</v>
+        <v>121</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>9</v>
@@ -2708,13 +1862,13 @@
         <v>10233.0</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>9</v>
@@ -2728,13 +1882,13 @@
         <v>10236.0</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>269</v>
+        <v>127</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>9</v>
@@ -2748,13 +1902,13 @@
         <v>10237.0</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>9</v>
@@ -2768,13 +1922,13 @@
         <v>10242.0</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>279</v>
+        <v>133</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>9</v>
@@ -2788,13 +1942,13 @@
         <v>10243.0</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>281</v>
+        <v>135</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>282</v>
+        <v>136</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>279</v>
+        <v>133</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>9</v>
@@ -2808,13 +1962,13 @@
         <v>10245.0</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>286</v>
+        <v>138</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>9</v>
@@ -2828,14 +1982,14 @@
         <v>10248.0</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="0" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>131.0</v>
@@ -2846,13 +2000,13 @@
         <v>10249.0</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>291</v>
+        <v>143</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>294</v>
+        <v>144</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>9</v>
@@ -2866,13 +2020,13 @@
         <v>10250.0</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>296</v>
+        <v>147</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>9</v>
@@ -2886,13 +2040,13 @@
         <v>10251.0</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>297</v>
+        <v>148</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>9</v>
@@ -2906,13 +2060,13 @@
         <v>10257.0</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>311</v>
+        <v>150</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>313</v>
+        <v>152</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>9</v>
@@ -2926,13 +2080,13 @@
         <v>10263.0</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>320</v>
+        <v>154</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>321</v>
+        <v>155</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>9</v>
@@ -2946,13 +2100,13 @@
         <v>10264.0</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>323</v>
+        <v>157</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>318</v>
+        <v>158</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>9</v>
@@ -2966,13 +2120,13 @@
         <v>10267.0</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>325</v>
+        <v>159</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>328</v>
+        <v>160</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>324</v>
+        <v>161</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>9</v>
@@ -2986,13 +2140,13 @@
         <v>10271.0</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>336</v>
+        <v>162</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>337</v>
+        <v>163</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>338</v>
+        <v>164</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>9</v>
@@ -3006,13 +2160,13 @@
         <v>10272.0</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>336</v>
+        <v>162</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>339</v>
+        <v>165</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>9</v>
@@ -3026,13 +2180,13 @@
         <v>10274.0</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>340</v>
+        <v>167</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>337</v>
+        <v>163</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>9</v>
@@ -3046,13 +2200,13 @@
         <v>10276.0</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>342</v>
+        <v>168</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>343</v>
+        <v>169</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>9</v>
@@ -3066,13 +2220,13 @@
         <v>10278.0</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>348</v>
+        <v>171</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>349</v>
+        <v>172</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>350</v>
+        <v>173</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>9</v>
@@ -3086,13 +2240,13 @@
         <v>10281.0</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>351</v>
+        <v>174</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>355</v>
+        <v>175</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>9</v>
@@ -3106,13 +2260,13 @@
         <v>10282.0</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>359</v>
+        <v>179</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>9</v>
@@ -3126,13 +2280,13 @@
         <v>10285.0</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>354</v>
+        <v>180</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>363</v>
+        <v>181</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>364</v>
+        <v>182</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>9</v>
@@ -3146,13 +2300,13 @@
         <v>10290.0</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>371</v>
+        <v>183</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>372</v>
+        <v>184</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>370</v>
+        <v>185</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>9</v>
@@ -3166,13 +2320,13 @@
         <v>10292.0</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>373</v>
+        <v>186</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>376</v>
+        <v>187</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>367</v>
+        <v>188</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>9</v>
@@ -3186,13 +2340,13 @@
         <v>10294.0</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>374</v>
+        <v>190</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>375</v>
+        <v>191</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>9</v>
@@ -3206,13 +2360,13 @@
         <v>10295.0</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>374</v>
+        <v>190</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>375</v>
+        <v>191</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>9</v>
@@ -3226,13 +2380,13 @@
         <v>10305.0</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>394</v>
+        <v>192</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>395</v>
+        <v>193</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>396</v>
+        <v>194</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>9</v>
@@ -3246,13 +2400,13 @@
         <v>10307.0</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>389</v>
+        <v>195</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>398</v>
+        <v>196</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>392</v>
+        <v>197</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>9</v>
@@ -3266,13 +2420,13 @@
         <v>10308.0</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>396</v>
+        <v>194</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>399</v>
+        <v>198</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>392</v>
+        <v>197</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>9</v>
@@ -3286,13 +2440,13 @@
         <v>10312.0</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>397</v>
+        <v>199</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>402</v>
+        <v>200</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>398</v>
+        <v>196</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>9</v>
@@ -3306,13 +2460,13 @@
         <v>10317.0</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>411</v>
+        <v>201</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>412</v>
+        <v>202</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>407</v>
+        <v>203</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>9</v>
@@ -3326,13 +2480,13 @@
         <v>10318.0</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>411</v>
+        <v>201</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>409</v>
+        <v>204</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>410</v>
+        <v>205</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>9</v>
@@ -3346,13 +2500,13 @@
         <v>10319.0</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>413</v>
+        <v>206</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>414</v>
+        <v>207</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>415</v>
+        <v>208</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>9</v>
@@ -3366,13 +2520,13 @@
         <v>10321.0</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>417</v>
+        <v>209</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>412</v>
+        <v>202</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>410</v>
+        <v>205</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>9</v>
@@ -3386,13 +2540,13 @@
         <v>10322.0</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>417</v>
+        <v>209</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>412</v>
+        <v>202</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>418</v>
+        <v>210</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>9</v>
@@ -3406,13 +2560,13 @@
         <v>10324.0</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>419</v>
+        <v>211</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>414</v>
+        <v>207</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>407</v>
+        <v>203</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>9</v>
@@ -3426,13 +2580,13 @@
         <v>10329.0</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>424</v>
+        <v>212</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>425</v>
+        <v>213</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>420</v>
+        <v>214</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>9</v>
@@ -3446,13 +2600,13 @@
         <v>10331.0</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>427</v>
+        <v>215</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>428</v>
+        <v>216</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>428</v>
+        <v>216</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>9</v>
@@ -3466,13 +2620,13 @@
         <v>10333.0</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>423</v>
+        <v>217</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>429</v>
+        <v>218</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>430</v>
+        <v>219</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>9</v>
@@ -3486,13 +2640,13 @@
         <v>10335.0</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>421</v>
+        <v>220</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>433</v>
+        <v>221</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>428</v>
+        <v>216</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>9</v>
@@ -3506,13 +2660,13 @@
         <v>10337.0</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>422</v>
+        <v>222</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>435</v>
+        <v>223</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>434</v>
+        <v>224</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>9</v>
@@ -3526,13 +2680,13 @@
         <v>10346.0</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>433</v>
+        <v>221</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>439</v>
+        <v>225</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>435</v>
+        <v>223</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>9</v>
@@ -3546,13 +2700,13 @@
         <v>10349.0</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>438</v>
+        <v>226</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>440</v>
+        <v>227</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>441</v>
+        <v>228</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>9</v>
@@ -3566,13 +2720,13 @@
         <v>10352.0</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>441</v>
+        <v>228</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>444</v>
+        <v>229</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>445</v>
+        <v>230</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>9</v>
@@ -3586,13 +2740,13 @@
         <v>10353.0</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>446</v>
+        <v>231</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>443</v>
+        <v>232</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>439</v>
+        <v>225</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>9</v>
@@ -3606,13 +2760,13 @@
         <v>10357.0</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>447</v>
+        <v>233</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>451</v>
+        <v>234</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>448</v>
+        <v>235</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>9</v>
@@ -3626,13 +2780,13 @@
         <v>10362.0</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>458</v>
+        <v>236</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>459</v>
+        <v>237</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>460</v>
+        <v>238</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>9</v>
@@ -3646,13 +2800,13 @@
         <v>10365.0</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>465</v>
+        <v>239</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>466</v>
+        <v>240</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>467</v>
+        <v>241</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>9</v>
@@ -3666,16 +2820,16 @@
         <v>10367.0</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>462</v>
+        <v>242</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>469</v>
+        <v>243</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>459</v>
+        <v>237</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>205.0</v>
@@ -3686,13 +2840,13 @@
         <v>10368.0</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>468</v>
+        <v>245</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>470</v>
+        <v>246</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>471</v>
+        <v>247</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>9</v>
@@ -3706,13 +2860,13 @@
         <v>10369.0</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>472</v>
+        <v>248</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>473</v>
+        <v>249</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>471</v>
+        <v>247</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>9</v>
@@ -3726,13 +2880,13 @@
         <v>10371.0</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>476</v>
+        <v>250</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>477</v>
+        <v>251</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>475</v>
+        <v>252</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>9</v>
@@ -3746,13 +2900,13 @@
         <v>10376.0</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>481</v>
+        <v>253</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>486</v>
+        <v>254</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>487</v>
+        <v>255</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>9</v>
@@ -3766,13 +2920,13 @@
         <v>10381.0</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>493</v>
+        <v>256</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>494</v>
+        <v>257</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>486</v>
+        <v>254</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>9</v>
@@ -3786,13 +2940,13 @@
         <v>10382.0</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>493</v>
+        <v>256</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>495</v>
+        <v>258</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>486</v>
+        <v>254</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>9</v>
@@ -3806,13 +2960,13 @@
         <v>10384.0</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>495</v>
+        <v>258</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>498</v>
+        <v>259</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>499</v>
+        <v>260</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>9</v>
@@ -3826,13 +2980,13 @@
         <v>10385.0</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>500</v>
+        <v>261</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>501</v>
+        <v>262</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>502</v>
+        <v>263</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>9</v>
@@ -3846,13 +3000,13 @@
         <v>10388.0</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>503</v>
+        <v>264</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>504</v>
+        <v>265</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>501</v>
+        <v>262</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>9</v>
@@ -3866,13 +3020,13 @@
         <v>10390.0</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>506</v>
+        <v>266</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>504</v>
+        <v>265</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>507</v>
+        <v>267</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>9</v>
@@ -3886,13 +3040,13 @@
         <v>10396.0</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>519</v>
+        <v>268</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>520</v>
+        <v>269</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>521</v>
+        <v>270</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>9</v>
@@ -3906,13 +3060,13 @@
         <v>10400.0</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>528</v>
+        <v>272</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>529</v>
+        <v>273</v>
       </c>
       <c r="E107" s="0" t="s">
         <v>9</v>
@@ -3926,14 +3080,14 @@
         <v>10401.0</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>527</v>
+        <v>274</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>530</v>
+        <v>275</v>
       </c>
       <c r="D108" s="0"/>
       <c r="E108" s="0" t="s">
-        <v>432</v>
+        <v>276</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>328.0</v>
@@ -3944,14 +3098,14 @@
         <v>10407.0</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>540</v>
+        <v>277</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>541</v>
+        <v>278</v>
       </c>
       <c r="D109" s="0"/>
       <c r="E109" s="0" t="s">
-        <v>432</v>
+        <v>276</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>450.0</v>
@@ -3962,13 +3116,13 @@
         <v>10413.0</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>545</v>
+        <v>279</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>553</v>
+        <v>280</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>554</v>
+        <v>281</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>9</v>
@@ -3982,14 +3136,14 @@
         <v>10414.0</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>550</v>
+        <v>282</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>552</v>
+        <v>283</v>
       </c>
       <c r="D111" s="0"/>
       <c r="E111" s="0" t="s">
-        <v>432</v>
+        <v>276</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>362.0</v>
@@ -4000,14 +3154,14 @@
         <v>10421.0</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>562</v>
+        <v>284</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>565</v>
+        <v>285</v>
       </c>
       <c r="D112" s="0"/>
       <c r="E112" s="0" t="s">
-        <v>564</v>
+        <v>286</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>124.0</v>
@@ -4018,14 +3172,14 @@
         <v>10422.0</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>566</v>
+        <v>287</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>567</v>
+        <v>288</v>
       </c>
       <c r="D113" s="0"/>
       <c r="E113" s="0" t="s">
-        <v>564</v>
+        <v>286</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>157.0</v>
